--- a/output/fit_clients/fit_round_273.xlsx
+++ b/output/fit_clients/fit_round_273.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1622116467.823213</v>
+        <v>2185434181.356348</v>
       </c>
       <c r="F2" t="n">
-        <v>0.101294994884487</v>
+        <v>0.09305943563001395</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03462760642300779</v>
+        <v>0.04540533015095051</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>811058178.7231541</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2406049973.533482</v>
+        <v>1778358650.904459</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1754377969517027</v>
+        <v>0.1330098603016064</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04308076679413383</v>
+        <v>0.04347501816923795</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1203025089.708467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4243707316.336855</v>
+        <v>5120811881.496853</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1063284466418971</v>
+        <v>0.1610364745710341</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03243116945899561</v>
+        <v>0.03701311590356833</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>99</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2121853689.609159</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3566722744.94096</v>
+        <v>3229907832.388186</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06827646151554705</v>
+        <v>0.07525451936722222</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03576828245186039</v>
+        <v>0.0340371669592684</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>101</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1783361404.831302</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2831973893.135838</v>
+        <v>1799290558.970662</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09287535557548229</v>
+        <v>0.1030197629326961</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05485431763209161</v>
+        <v>0.0565095875769762</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>48</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1415986886.119417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3023102891.457901</v>
+        <v>2047415526.883327</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09673632759918085</v>
+        <v>0.0877686052403364</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03194504685552871</v>
+        <v>0.04540438556612894</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>85</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1511551408.44812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2912554301.363106</v>
+        <v>2902769974.082551</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1903681103078917</v>
+        <v>0.1579295675552444</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0205852780124002</v>
+        <v>0.02370997651181319</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>87</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1456277199.252844</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2035550821.394356</v>
+        <v>1566565429.48001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1411814631152149</v>
+        <v>0.193036073521428</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02802591359827624</v>
+        <v>0.03122496869216055</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1017775432.374764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4717313937.360387</v>
+        <v>5905793585.831573</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1529475427886066</v>
+        <v>0.1899060845631647</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03683305742189702</v>
+        <v>0.04961088756102815</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>115</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2358657046.136634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3064952474.209795</v>
+        <v>3284808924.817796</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1696933968060188</v>
+        <v>0.1711180450828756</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04033683429124393</v>
+        <v>0.0383083417450373</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>113</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1532476184.545764</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2086179917.565072</v>
+        <v>2823643863.17054</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1907081180886923</v>
+        <v>0.1281626843778065</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04606815590246429</v>
+        <v>0.0421016838363503</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>93</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1043089893.126768</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4043004936.688848</v>
+        <v>4388922259.855305</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09212200610938755</v>
+        <v>0.09061590869218972</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02997523612641068</v>
+        <v>0.02532293995244191</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>92</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2021502521.086683</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2719381481.141912</v>
+        <v>3475427277.717078</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1298297619671439</v>
+        <v>0.1534671619417237</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03376032087238887</v>
+        <v>0.02683666458479114</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>91</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1359690795.324935</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1628438591.614391</v>
+        <v>1246896522.137568</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06787793044178181</v>
+        <v>0.07596152528792613</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04331789609853131</v>
+        <v>0.04661926773919977</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>814219410.4247825</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2765657479.187912</v>
+        <v>1831362627.278312</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1105771112569991</v>
+        <v>0.07872586095249801</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03659216087859212</v>
+        <v>0.0516953397781432</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>51</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1382828746.687013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4629322672.391483</v>
+        <v>4105995822.341649</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1607400023857298</v>
+        <v>0.1372310540262514</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05326407880541268</v>
+        <v>0.053206174413488</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>80</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2314661339.67666</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3681729262.073745</v>
+        <v>2947104665.223347</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1534178446823357</v>
+        <v>0.1457787887547764</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02703846778698632</v>
+        <v>0.02699035015747684</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>89</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1840864611.985044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1301849567.753</v>
+        <v>1174858129.496341</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1367924356728669</v>
+        <v>0.177549141227964</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02183805177919265</v>
+        <v>0.02483839801129022</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>650924886.5618206</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1796711616.386029</v>
+        <v>1870320293.370925</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1035346666745922</v>
+        <v>0.1079577767923904</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02431073769377056</v>
+        <v>0.02234453277829755</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>898355856.1872711</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2143449808.021429</v>
+        <v>2320149338.900814</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09278875098359614</v>
+        <v>0.07261039825048188</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02916039429823409</v>
+        <v>0.02923377153484462</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>22</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1071724926.237976</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2587725128.033691</v>
+        <v>3827617391.141311</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1143140984761338</v>
+        <v>0.1138220512456856</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03673272931080763</v>
+        <v>0.04385168960477179</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>75</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1293862650.23585</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1476950066.986624</v>
+        <v>1509877495.403814</v>
       </c>
       <c r="F23" t="n">
-        <v>0.112504454913889</v>
+        <v>0.1326362079446468</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04717256656691639</v>
+        <v>0.04571376953300639</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>738475023.3123116</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3703514929.735002</v>
+        <v>3558903507.766553</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1278063774738731</v>
+        <v>0.135599669553617</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02945278628369807</v>
+        <v>0.03052713220506217</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>80</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1851757452.779166</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>929831214.9498816</v>
+        <v>1206082221.410406</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1190431665316247</v>
+        <v>0.1091934402353343</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02012303854365036</v>
+        <v>0.02852303071031881</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>464915687.6191972</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1303101132.526353</v>
+        <v>1396585795.692699</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1000239527043148</v>
+        <v>0.09885285608729404</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02980234815888217</v>
+        <v>0.03643634142356215</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>651550612.5113641</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4053703644.66288</v>
+        <v>3000612599.381017</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1440854684017453</v>
+        <v>0.1287898753631276</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02480908964341068</v>
+        <v>0.01905426270939512</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2026851829.812648</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3368886351.971035</v>
+        <v>3771015191.735046</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1041119405424716</v>
+        <v>0.09461769489639928</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04797615704085074</v>
+        <v>0.03264211079756454</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>88</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1684443219.219487</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4865295344.498289</v>
+        <v>3789150472.097281</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1297868646572513</v>
+        <v>0.1258380514112134</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04152119445479621</v>
+        <v>0.03501165671104218</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>121</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2432647629.142863</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1653781770.918871</v>
+        <v>1527608523.196233</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09869596262079156</v>
+        <v>0.1092711566150867</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02782575671047484</v>
+        <v>0.02827079348674124</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>826890883.4596362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1012317914.233225</v>
+        <v>1090026791.064808</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08742665953254147</v>
+        <v>0.07459046704142842</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0405724419026422</v>
+        <v>0.0516486933156344</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>506158952.7554239</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1615606975.43342</v>
+        <v>1829152975.055242</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0874937409195185</v>
+        <v>0.1129062721463443</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03439575882954177</v>
+        <v>0.02814330139275552</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>807803580.0234392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2599706035.476011</v>
+        <v>3105536290.653669</v>
       </c>
       <c r="F33" t="n">
-        <v>0.152818963011156</v>
+        <v>0.1967653759520297</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05261723837961893</v>
+        <v>0.05993308239692838</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>84</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1299853047.437442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1122916324.319476</v>
+        <v>1268951080.388683</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1130842395352552</v>
+        <v>0.08687262240510514</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02083594272096325</v>
+        <v>0.0186669826109292</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>561458179.8980058</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1270203974.108287</v>
+        <v>857349443.7925676</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09219722426050173</v>
+        <v>0.07369923063911477</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04440331359312458</v>
+        <v>0.03124762876202151</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>635101946.397391</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3248037284.70048</v>
+        <v>2284009100.476972</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1532418022310396</v>
+        <v>0.1271725648973338</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02336218888856229</v>
+        <v>0.02323597198613423</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>67</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1624018604.406027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2265822633.181981</v>
+        <v>2717073551.427831</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1005915761171991</v>
+        <v>0.08958170200944751</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03068118245178137</v>
+        <v>0.02880657520535481</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>73</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1132911380.441605</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1892767456.948472</v>
+        <v>1616374412.466209</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07877663819318897</v>
+        <v>0.07781544411572767</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02469535310995595</v>
+        <v>0.02780503303837857</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>946383722.2430087</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1531934519.198307</v>
+        <v>2144389537.158114</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1583549860063715</v>
+        <v>0.1602036139522448</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02104056611035866</v>
+        <v>0.02873739755277604</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>765967325.1790316</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1452962570.344098</v>
+        <v>1718414494.853163</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1129676011815889</v>
+        <v>0.1250004773522291</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03732201823666226</v>
+        <v>0.04962236641483945</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>726481263.1216973</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2862598841.455305</v>
+        <v>2065818953.20322</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1644387098379956</v>
+        <v>0.1107327843255771</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04060075336776359</v>
+        <v>0.04382431218794974</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>67</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1431299410.550704</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3373739677.83032</v>
+        <v>3404975094.38384</v>
       </c>
       <c r="F42" t="n">
-        <v>0.10915045479487</v>
+        <v>0.09075231090012657</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04090632743449368</v>
+        <v>0.04355117124446033</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1686869825.065281</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2206928855.716664</v>
+        <v>1875598267.900399</v>
       </c>
       <c r="F43" t="n">
-        <v>0.134824226590806</v>
+        <v>0.1683831915707139</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02522413754862757</v>
+        <v>0.01635730142777382</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>98</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1103464505.972696</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2181564056.920162</v>
+        <v>1839777108.715265</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07496386883723913</v>
+        <v>0.07958702294976293</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03126730511427762</v>
+        <v>0.02690090520180872</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1090782171.01753</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1623571503.170119</v>
+        <v>1705540095.857148</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1890877086324316</v>
+        <v>0.1415284595042264</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03779325794946926</v>
+        <v>0.05577154845034941</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>811785704.4864827</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4403539609.145883</v>
+        <v>4469613360.166545</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1276717494009974</v>
+        <v>0.1298673469011382</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04022353800142985</v>
+        <v>0.05944311163619743</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>97</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2201769797.217483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3587840841.870473</v>
+        <v>4080191862.433594</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1801142206272603</v>
+        <v>0.1472387742561347</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04889184207129619</v>
+        <v>0.03804149374968237</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>73</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1793920396.697443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2894443963.830453</v>
+        <v>4467084380.605435</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09247870100299306</v>
+        <v>0.07748683162728158</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03197463752939828</v>
+        <v>0.02742055886714472</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1447222080.565433</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1953857632.237194</v>
+        <v>1794865108.042425</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1760424972006004</v>
+        <v>0.1911322528212159</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04460317759498643</v>
+        <v>0.04250552645516228</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>976928777.5689007</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2659625739.307963</v>
+        <v>3917891149.472734</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1138105252993279</v>
+        <v>0.1148244753726801</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03428454551633554</v>
+        <v>0.04313566123716148</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>93</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1329812953.689518</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1303889212.13722</v>
+        <v>1301415559.379709</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1356056292621198</v>
+        <v>0.1349325656820431</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04182732135566686</v>
+        <v>0.03791486754809422</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>651944640.7721491</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5205764894.608187</v>
+        <v>4037665420.237409</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1121984425632722</v>
+        <v>0.09051711328411022</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03948532264689429</v>
+        <v>0.05503743104207116</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>112</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2602882432.81152</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3347965258.259249</v>
+        <v>3198424366.268894</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1321297336588572</v>
+        <v>0.1868528826303216</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02137787317049106</v>
+        <v>0.02998735868764044</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>79</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1673982637.550245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4074239990.341402</v>
+        <v>4109262748.255906</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1351623689877274</v>
+        <v>0.1246808099033616</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03440754643800223</v>
+        <v>0.03350057336278967</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>91</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2037120065.068889</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4287637120.302975</v>
+        <v>3541525850.579257</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1422595641341136</v>
+        <v>0.1543599605887984</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02445703315334403</v>
+        <v>0.03077717896075149</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2143818547.779351</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1220774371.844723</v>
+        <v>1879723814.558301</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1285103933320341</v>
+        <v>0.1092307060214318</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03784593943268758</v>
+        <v>0.05188467392020771</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>610387269.5213478</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3085261325.603091</v>
+        <v>3549820399.550282</v>
       </c>
       <c r="F57" t="n">
-        <v>0.12072526467861</v>
+        <v>0.114102726670807</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02321649165924826</v>
+        <v>0.0273469067726428</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>87</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1542630674.361034</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1823112723.516108</v>
+        <v>1263192515.244553</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2024484184706141</v>
+        <v>0.1772169998404884</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03307895591977275</v>
+        <v>0.03585810955582824</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>911556363.4179267</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3852689318.664279</v>
+        <v>5160981426.517833</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08617726841534633</v>
+        <v>0.12150777175112</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04693099656455241</v>
+        <v>0.04045882152161787</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>78</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1926344642.391709</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3519910680.210236</v>
+        <v>3340569617.509639</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1307256036744567</v>
+        <v>0.1662081904668619</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02270186702541243</v>
+        <v>0.03012124413184417</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>84</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1759955464.987268</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2394761748.249664</v>
+        <v>2382686424.07224</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1277220548193629</v>
+        <v>0.136016165663307</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02523172309911869</v>
+        <v>0.02968617323001524</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>95</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1197380911.669606</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1953942898.236059</v>
+        <v>2123019533.821676</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1228653239159883</v>
+        <v>0.1462288747343928</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03974030263918249</v>
+        <v>0.04428732959637408</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>976971500.2949678</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5210178415.787172</v>
+        <v>4171287670.576412</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07510632410743998</v>
+        <v>0.1015482728310291</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04293647359372434</v>
+        <v>0.04771772661772351</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>78</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2605089216.274226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3462305489.857015</v>
+        <v>3733474621.778042</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1306485736210019</v>
+        <v>0.1218968023298871</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02258600393478995</v>
+        <v>0.02610085136981428</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>85</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1731152742.96325</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4597600086.466975</v>
+        <v>4265158365.241569</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1202693654443468</v>
+        <v>0.1723971476488135</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02529575910924955</v>
+        <v>0.02353248661920933</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>98</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2298800026.150754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5340308376.165091</v>
+        <v>3983358567.802296</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1031721212661749</v>
+        <v>0.1434724189889641</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04869046451862295</v>
+        <v>0.04972010404108264</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>79</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2670154233.510185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3259899977.814085</v>
+        <v>2970947511.913571</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0904097198036687</v>
+        <v>0.09487393676766433</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04822319115911006</v>
+        <v>0.04026634000445917</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>87</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1629949985.187796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5712287675.752149</v>
+        <v>4474033880.140545</v>
       </c>
       <c r="F68" t="n">
-        <v>0.110385335900584</v>
+        <v>0.1575184960855293</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04482509528063854</v>
+        <v>0.03839262976080855</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2856143937.425176</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1682697686.694804</v>
+        <v>2346805259.995152</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1598843277341985</v>
+        <v>0.1624698649833773</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05028475212650007</v>
+        <v>0.04376540368063412</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>841348807.2509208</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3329043920.403728</v>
+        <v>3413648865.590931</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0638799757761517</v>
+        <v>0.08743910031157388</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03621798779273221</v>
+        <v>0.04857649877566812</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>78</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1664521958.674855</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3951622954.274478</v>
+        <v>3523297598.533718</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1442208468530057</v>
+        <v>0.1379264409271045</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02373017330728456</v>
+        <v>0.02922439690196432</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>101</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1975811504.607409</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1841996582.153435</v>
+        <v>1926246202.505055</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0733043919656747</v>
+        <v>0.06683034202421792</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0392928808531003</v>
+        <v>0.03789009127964481</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>920998262.8744792</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2617441906.157066</v>
+        <v>2382532886.17065</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09128469072818415</v>
+        <v>0.09168192525127636</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05027253756093246</v>
+        <v>0.04598773926485956</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>103</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1308720984.094115</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2759225775.954959</v>
+        <v>3342951224.621858</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1145632527742367</v>
+        <v>0.1305425363242174</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03172554066836325</v>
+        <v>0.02295025574101624</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>93</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1379612974.151213</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2360957787.726203</v>
+        <v>2104075083.450363</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1612741365304097</v>
+        <v>0.1576056677670075</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02341594511447626</v>
+        <v>0.03684589922671044</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1180478824.176248</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4106185807.848511</v>
+        <v>4791134492.078626</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1251654353610239</v>
+        <v>0.107458337402157</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02121528054418657</v>
+        <v>0.03392955595504936</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2053092893.060232</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2262321550.369103</v>
+        <v>1550466833.763534</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1186340132059559</v>
+        <v>0.1675255247468826</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02720539122919532</v>
+        <v>0.03064786938953829</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1131160875.419235</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3432320835.491714</v>
+        <v>4048017203.740275</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1220119773261752</v>
+        <v>0.1321513648298621</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04763322819485193</v>
+        <v>0.04965490441373988</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>95</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1716160424.105771</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1464993428.310655</v>
+        <v>1363746380.054546</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1489273649924884</v>
+        <v>0.1607537097012431</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03973236604477608</v>
+        <v>0.03253298198584142</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>732496742.2344745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3640453163.233004</v>
+        <v>5523171834.476075</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08004293510593977</v>
+        <v>0.08084527118777268</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03523560079797693</v>
+        <v>0.02785300778673884</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>57</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1820226563.213916</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3965988535.949462</v>
+        <v>4054955140.591905</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1117147684806447</v>
+        <v>0.113679389591651</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03148112797748066</v>
+        <v>0.02812641776354188</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1982994229.89943</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5426669810.105055</v>
+        <v>4667670634.791509</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1326815252002534</v>
+        <v>0.1966126007450228</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02876767706844125</v>
+        <v>0.02214388173280989</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>97</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2713334865.199497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2369981678.878924</v>
+        <v>1752720351.388659</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1153727564592099</v>
+        <v>0.133372454621661</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03471687803403222</v>
+        <v>0.0384652183887558</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1184990870.759603</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2191284040.406027</v>
+        <v>1960265531.08753</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1117587694709765</v>
+        <v>0.08030613477860479</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04688674997071932</v>
+        <v>0.04507943564359387</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1095641997.169769</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2782129926.256172</v>
+        <v>3615715767.412961</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1253195151664568</v>
+        <v>0.1563396679514862</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04465344034700797</v>
+        <v>0.04799202519832986</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>103</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1391064999.223837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2466008392.759539</v>
+        <v>2392630942.32101</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1154188386974452</v>
+        <v>0.1307212735251553</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02056394929272619</v>
+        <v>0.01778244575806005</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1233004288.804443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1098574400.6289</v>
+        <v>1314031975.20238</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1270818681277952</v>
+        <v>0.1281344405356304</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03753755700636797</v>
+        <v>0.03351575974957333</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>549287229.8958582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2964952411.548155</v>
+        <v>3219880739.298894</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1135178688783045</v>
+        <v>0.149529263416485</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0295610095981698</v>
+        <v>0.02940424980267889</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>107</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1482476232.744455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3320562113.452041</v>
+        <v>2900413179.620867</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1421528097999933</v>
+        <v>0.1181598376709023</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03755055808620744</v>
+        <v>0.04173760477968973</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>92</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1660281071.347429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1955962135.13518</v>
+        <v>1916977948.956429</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1167860450318208</v>
+        <v>0.1066309072343433</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03405098198727611</v>
+        <v>0.04586551069668409</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>977981129.7834487</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1974398694.019902</v>
+        <v>2014625799.992888</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1918724377018467</v>
+        <v>0.1543775949869819</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05751928430449797</v>
+        <v>0.04835914537992064</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>987199322.668399</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2430871564.970941</v>
+        <v>2741750317.731273</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1033586870458347</v>
+        <v>0.08947175414395675</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03858184974580939</v>
+        <v>0.04650847169052109</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>68</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1215435761.193198</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3425802294.097679</v>
+        <v>3422944493.49261</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0942801250515317</v>
+        <v>0.1394599813713706</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05197036385102314</v>
+        <v>0.04105625887248299</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1712901184.806603</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1833305773.747887</v>
+        <v>2095691592.786744</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1509501526839018</v>
+        <v>0.163520724263597</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02903412001096534</v>
+        <v>0.04204849213805077</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>916652863.5330952</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2351365929.761577</v>
+        <v>2971737702.459332</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1328057471649776</v>
+        <v>0.1349474700795871</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04841169397217508</v>
+        <v>0.04635015479938927</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>66</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1175683011.807013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1781969956.769372</v>
+        <v>1475780166.377903</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1267030533765015</v>
+        <v>0.08516074471713572</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03043849498902956</v>
+        <v>0.03657148989547789</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>890984988.6306643</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5168112655.399629</v>
+        <v>4145474666.476327</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1667628651720219</v>
+        <v>0.1636315824561474</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01861060992420384</v>
+        <v>0.02762395861952776</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>88</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2584056478.008559</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3818054992.595254</v>
+        <v>3210124047.700651</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1289516913576207</v>
+        <v>0.1001101951764329</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02564076133137842</v>
+        <v>0.03098563088049777</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>74</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1909027536.463607</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2274897812.37008</v>
+        <v>2678612507.439228</v>
       </c>
       <c r="F99" t="n">
-        <v>0.113863435698821</v>
+        <v>0.1429694094882016</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03391949431504331</v>
+        <v>0.03427849056952913</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>86</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1137448839.604204</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3364287179.671193</v>
+        <v>4245158307.342384</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1488595982680322</v>
+        <v>0.1740868781528296</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01932636271301681</v>
+        <v>0.02628147310057716</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>85</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1682143609.759114</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3212721866.698977</v>
+        <v>2872681780.683569</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1998965046946529</v>
+        <v>0.1438750921814642</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0381015624014896</v>
+        <v>0.04194573165333593</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>108</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1606361050.489149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_273.xlsx
+++ b/output/fit_clients/fit_round_273.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2185434181.356348</v>
+        <v>1782468978.897135</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09305943563001395</v>
+        <v>0.08978578067286057</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04540533015095051</v>
+        <v>0.0307566761353957</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1778358650.904459</v>
+        <v>2337708578.370473</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1330098603016064</v>
+        <v>0.1717548194826998</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04347501816923795</v>
+        <v>0.03754273693998646</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5120811881.496853</v>
+        <v>3451623644.054429</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1610364745710341</v>
+        <v>0.1096310647588602</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03701311590356833</v>
+        <v>0.03504915119118552</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3229907832.388186</v>
+        <v>3265264317.481684</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07525451936722222</v>
+        <v>0.08959050578509377</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0340371669592684</v>
+        <v>0.04965948636941535</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1799290558.970662</v>
+        <v>2491437385.551016</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1030197629326961</v>
+        <v>0.132896906637205</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0565095875769762</v>
+        <v>0.04738100255240146</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2047415526.883327</v>
+        <v>2563711468.19995</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0877686052403364</v>
+        <v>0.08539993719164113</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04540438556612894</v>
+        <v>0.03896168385122608</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2902769974.082551</v>
+        <v>3438402907.275707</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1579295675552444</v>
+        <v>0.2173977708659566</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02370997651181319</v>
+        <v>0.02543180611479394</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1566565429.48001</v>
+        <v>1848290313.953708</v>
       </c>
       <c r="F9" t="n">
-        <v>0.193036073521428</v>
+        <v>0.1609838456430285</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03122496869216055</v>
+        <v>0.02394219875899408</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5905793585.831573</v>
+        <v>5774981075.530771</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1899060845631647</v>
+        <v>0.1311133659058203</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04961088756102815</v>
+        <v>0.03679317678665719</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3284808924.817796</v>
+        <v>3731701221.089349</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1711180450828756</v>
+        <v>0.1745078377256563</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0383083417450373</v>
+        <v>0.04881041321079371</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2823643863.17054</v>
+        <v>2074150934.172216</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1281626843778065</v>
+        <v>0.1662082439617074</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0421016838363503</v>
+        <v>0.05172697065199013</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4388922259.855305</v>
+        <v>3934972755.088703</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09061590869218972</v>
+        <v>0.07196119578614769</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02532293995244191</v>
+        <v>0.02629992802433398</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3475427277.717078</v>
+        <v>3894417387.138716</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1534671619417237</v>
+        <v>0.1838514908730589</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02683666458479114</v>
+        <v>0.04299508152943641</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1246896522.137568</v>
+        <v>1189157121.462294</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07596152528792613</v>
+        <v>0.1025225131869729</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04661926773919977</v>
+        <v>0.03904981079477704</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1831362627.278312</v>
+        <v>2259550094.709935</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07872586095249801</v>
+        <v>0.07357103472976857</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0516953397781432</v>
+        <v>0.0454322789271529</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4105995822.341649</v>
+        <v>5186508669.952822</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1372310540262514</v>
+        <v>0.1516118924235288</v>
       </c>
       <c r="G17" t="n">
-        <v>0.053206174413488</v>
+        <v>0.03730944512001468</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2947104665.223347</v>
+        <v>2806510811.848759</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1457787887547764</v>
+        <v>0.1609660235477288</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02699035015747684</v>
+        <v>0.03262790389783071</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1174858129.496341</v>
+        <v>894839126.5832125</v>
       </c>
       <c r="F19" t="n">
-        <v>0.177549141227964</v>
+        <v>0.1889764518672343</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02483839801129022</v>
+        <v>0.02093153911460506</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1870320293.370925</v>
+        <v>2713269361.703885</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1079577767923904</v>
+        <v>0.1582844830084428</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02234453277829755</v>
+        <v>0.02070824709816945</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2320149338.900814</v>
+        <v>1865132479.061063</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07261039825048188</v>
+        <v>0.07365979843082192</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02923377153484462</v>
+        <v>0.03622529994468584</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3827617391.141311</v>
+        <v>3434460841.016901</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1138220512456856</v>
+        <v>0.1021920109147122</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04385168960477179</v>
+        <v>0.04309638545625908</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1509877495.403814</v>
+        <v>1343549544.681565</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1326362079446468</v>
+        <v>0.1139612243081064</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04571376953300639</v>
+        <v>0.04197898147730874</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3558903507.766553</v>
+        <v>2542816620.915169</v>
       </c>
       <c r="F24" t="n">
-        <v>0.135599669553617</v>
+        <v>0.09157996900059041</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03052713220506217</v>
+        <v>0.03037129694834497</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1206082221.410406</v>
+        <v>1143356690.139176</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1091934402353343</v>
+        <v>0.1191874811171636</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02852303071031881</v>
+        <v>0.02738404908996719</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1396585795.692699</v>
+        <v>1076996456.282191</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09885285608729404</v>
+        <v>0.1044168589438585</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03643634142356215</v>
+        <v>0.02960984556951682</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3000612599.381017</v>
+        <v>4266590553.162929</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1287898753631276</v>
+        <v>0.1328409974203285</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01905426270939512</v>
+        <v>0.02439895836173761</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3771015191.735046</v>
+        <v>3259002620.415667</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09461769489639928</v>
+        <v>0.1370718140889728</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03264211079756454</v>
+        <v>0.03318685305138866</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3789150472.097281</v>
+        <v>3861551517.303832</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1258380514112134</v>
+        <v>0.1235627716906288</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03501165671104218</v>
+        <v>0.0304494630549802</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1527608523.196233</v>
+        <v>2223355338.200777</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1092711566150867</v>
+        <v>0.09630374431445317</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02827079348674124</v>
+        <v>0.02679244921372664</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1090026791.064808</v>
+        <v>1242849734.376244</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07459046704142842</v>
+        <v>0.1090410947904008</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0516486933156344</v>
+        <v>0.03900075907507282</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1829152975.055242</v>
+        <v>1619287056.627329</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1129062721463443</v>
+        <v>0.1031372034663229</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02814330139275552</v>
+        <v>0.0314845196152523</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3105536290.653669</v>
+        <v>3085250474.658469</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1967653759520297</v>
+        <v>0.1794715968018532</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05993308239692838</v>
+        <v>0.05623383304228625</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1268951080.388683</v>
+        <v>1403635676.73635</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08687262240510514</v>
+        <v>0.0778521719101907</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0186669826109292</v>
+        <v>0.0266838655933953</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>857349443.7925676</v>
+        <v>1071367530.948672</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07369923063911477</v>
+        <v>0.07637484137144057</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03124762876202151</v>
+        <v>0.0444556822285332</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2284009100.476972</v>
+        <v>1981513397.361997</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1271725648973338</v>
+        <v>0.1790510757535669</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02323597198613423</v>
+        <v>0.0192996097051658</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2717073551.427831</v>
+        <v>1954542524.091809</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08958170200944751</v>
+        <v>0.09075143988401374</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02880657520535481</v>
+        <v>0.0407824555189686</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1616374412.466209</v>
+        <v>1890099372.765257</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07781544411572767</v>
+        <v>0.08118561599611786</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02780503303837857</v>
+        <v>0.03433435272907339</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2144389537.158114</v>
+        <v>1458202652.411617</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1602036139522448</v>
+        <v>0.1935905054808051</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02873739755277604</v>
+        <v>0.02341595063743743</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1718414494.853163</v>
+        <v>1614867582.263599</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1250004773522291</v>
+        <v>0.1039652866053537</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04962236641483945</v>
+        <v>0.04277587189211804</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2065818953.20322</v>
+        <v>2806729289.374024</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1107327843255771</v>
+        <v>0.1360256949932675</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04382431218794974</v>
+        <v>0.04377490464740507</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3404975094.38384</v>
+        <v>3943120066.828113</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09075231090012657</v>
+        <v>0.1199816968115116</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04355117124446033</v>
+        <v>0.0323381922980886</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1875598267.900399</v>
+        <v>2366777221.081145</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1683831915707139</v>
+        <v>0.1967004394810366</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01635730142777382</v>
+        <v>0.02192261034358083</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1839777108.715265</v>
+        <v>1864796679.923949</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07958702294976293</v>
+        <v>0.06216237714033953</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02690090520180872</v>
+        <v>0.02903148371161307</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1705540095.857148</v>
+        <v>2205251477.639384</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1415284595042264</v>
+        <v>0.1534074577577996</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05577154845034941</v>
+        <v>0.05583481808109907</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4469613360.166545</v>
+        <v>5531842646.046824</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1298673469011382</v>
+        <v>0.1085552931773047</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05944311163619743</v>
+        <v>0.05751629439314757</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4080191862.433594</v>
+        <v>3937302853.140994</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1472387742561347</v>
+        <v>0.1718922626773103</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03804149374968237</v>
+        <v>0.03741317478245645</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4467084380.605435</v>
+        <v>3507670603.088149</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07748683162728158</v>
+        <v>0.09830155183472761</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02742055886714472</v>
+        <v>0.03624225654040486</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1794865108.042425</v>
+        <v>1647627237.761538</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1911322528212159</v>
+        <v>0.1474355824141228</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04250552645516228</v>
+        <v>0.0320393381459555</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3917891149.472734</v>
+        <v>4066402599.849375</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1148244753726801</v>
+        <v>0.1730696369613964</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04313566123716148</v>
+        <v>0.04338247379760755</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1301415559.379709</v>
+        <v>1518777654.441529</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1349325656820431</v>
+        <v>0.1419850935534707</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03791486754809422</v>
+        <v>0.03922700871805226</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4037665420.237409</v>
+        <v>4420239666.819589</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09051711328411022</v>
+        <v>0.1225772477944912</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05503743104207116</v>
+        <v>0.04373638886772011</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3198424366.268894</v>
+        <v>2640924839.521576</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1868528826303216</v>
+        <v>0.1635523466940024</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02998735868764044</v>
+        <v>0.02592506263550819</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4109262748.255906</v>
+        <v>3267106839.780653</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1246808099033616</v>
+        <v>0.1254214049629815</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03350057336278967</v>
+        <v>0.03876909010803918</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3541525850.579257</v>
+        <v>4731396090.923844</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1543599605887984</v>
+        <v>0.1479511130241952</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03077717896075149</v>
+        <v>0.02214433663739431</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1879723814.558301</v>
+        <v>1144715740.888775</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1092307060214318</v>
+        <v>0.1142272475374105</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05188467392020771</v>
+        <v>0.05677842604727542</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3549820399.550282</v>
+        <v>3737737186.614553</v>
       </c>
       <c r="F57" t="n">
-        <v>0.114102726670807</v>
+        <v>0.1523702195058154</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0273469067726428</v>
+        <v>0.02101797384188457</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1263192515.244553</v>
+        <v>1340580055.784166</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1772169998404884</v>
+        <v>0.1527598551062762</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03585810955582824</v>
+        <v>0.02856546118735293</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5160981426.517833</v>
+        <v>4272631063.550027</v>
       </c>
       <c r="F59" t="n">
-        <v>0.12150777175112</v>
+        <v>0.114107450759082</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04045882152161787</v>
+        <v>0.04141104453892661</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3340569617.509639</v>
+        <v>2349347700.12663</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1662081904668619</v>
+        <v>0.1999553243550756</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03012124413184417</v>
+        <v>0.02189684054040866</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2382686424.07224</v>
+        <v>2579146323.108527</v>
       </c>
       <c r="F61" t="n">
-        <v>0.136016165663307</v>
+        <v>0.1670194165148189</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02968617323001524</v>
+        <v>0.03113796298765234</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2123019533.821676</v>
+        <v>1765159787.097108</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1462288747343928</v>
+        <v>0.1757761500805808</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04428732959637408</v>
+        <v>0.04967841240855467</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4171287670.576412</v>
+        <v>5204785785.82857</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1015482728310291</v>
+        <v>0.08115391790643417</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04771772661772351</v>
+        <v>0.04424972014534449</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3733474621.778042</v>
+        <v>4229450532.194146</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1218968023298871</v>
+        <v>0.1221409005217726</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02610085136981428</v>
+        <v>0.02155465999431207</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4265158365.241569</v>
+        <v>4569984463.566504</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1723971476488135</v>
+        <v>0.1617283558407411</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02353248661920933</v>
+        <v>0.02780120551162904</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3983358567.802296</v>
+        <v>5188808121.844539</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1434724189889641</v>
+        <v>0.1277379588260322</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04972010404108264</v>
+        <v>0.04178875649989822</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2970947511.913571</v>
+        <v>2326863651.987872</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09487393676766433</v>
+        <v>0.07088574170262665</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04026634000445917</v>
+        <v>0.04216087633975333</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4474033880.140545</v>
+        <v>5055606896.575564</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1575184960855293</v>
+        <v>0.1082975057743275</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03839262976080855</v>
+        <v>0.03540914766454283</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2346805259.995152</v>
+        <v>1726923813.874763</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1624698649833773</v>
+        <v>0.1774534194240408</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04376540368063412</v>
+        <v>0.04038274061288158</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3413648865.590931</v>
+        <v>3526132767.330075</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08743910031157388</v>
+        <v>0.07443754949682138</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04857649877566812</v>
+        <v>0.0448802255915579</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3523297598.533718</v>
+        <v>4360026832.894789</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1379264409271045</v>
+        <v>0.133930617572605</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02922439690196432</v>
+        <v>0.03080598638654955</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1926246202.505055</v>
+        <v>2119548180.574436</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06683034202421792</v>
+        <v>0.1035202881901844</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03789009127964481</v>
+        <v>0.04691937447786499</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2382532886.17065</v>
+        <v>3235144420.819077</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09168192525127636</v>
+        <v>0.08349479889554795</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04598773926485956</v>
+        <v>0.03241055882188408</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3342951224.621858</v>
+        <v>3530877911.022635</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1305425363242174</v>
+        <v>0.1696252870712759</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02295025574101624</v>
+        <v>0.0328530694501053</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2104075083.450363</v>
+        <v>2006145284.258437</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1576056677670075</v>
+        <v>0.1570396995733806</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03684589922671044</v>
+        <v>0.02676791544261066</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4791134492.078626</v>
+        <v>4176895197.894612</v>
       </c>
       <c r="F76" t="n">
-        <v>0.107458337402157</v>
+        <v>0.09924115682484748</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03392955595504936</v>
+        <v>0.0279115315935206</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1550466833.763534</v>
+        <v>2241623018.437877</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1675255247468826</v>
+        <v>0.1419453722528354</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03064786938953829</v>
+        <v>0.02955305699733709</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4048017203.740275</v>
+        <v>3626667436.240441</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1321513648298621</v>
+        <v>0.1168718671793759</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04965490441373988</v>
+        <v>0.03864222872590863</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1363746380.054546</v>
+        <v>1683298681.942836</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1607537097012431</v>
+        <v>0.1679096726691461</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03253298198584142</v>
+        <v>0.03736896003054052</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5523171834.476075</v>
+        <v>3451852897.830419</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08084527118777268</v>
+        <v>0.1077211694175913</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02785300778673884</v>
+        <v>0.03117702063044498</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4054955140.591905</v>
+        <v>4623330746.840736</v>
       </c>
       <c r="F81" t="n">
-        <v>0.113679389591651</v>
+        <v>0.1281699075512658</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02812641776354188</v>
+        <v>0.03055271599452361</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4667670634.791509</v>
+        <v>3616289670.69721</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1966126007450228</v>
+        <v>0.216484372641248</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02214388173280989</v>
+        <v>0.02926393144451772</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1752720351.388659</v>
+        <v>1712797196.832977</v>
       </c>
       <c r="F83" t="n">
-        <v>0.133372454621661</v>
+        <v>0.1078377010867292</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0384652183887558</v>
+        <v>0.04339303512539886</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1960265531.08753</v>
+        <v>1749478070.42589</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08030613477860479</v>
+        <v>0.0898788817477985</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04507943564359387</v>
+        <v>0.03747950746363529</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3615715767.412961</v>
+        <v>3675375116.259522</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1563396679514862</v>
+        <v>0.1136932237275854</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04799202519832986</v>
+        <v>0.03502320306790843</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2392630942.32101</v>
+        <v>2241474249.987742</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1307212735251553</v>
+        <v>0.1620141718398548</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01778244575806005</v>
+        <v>0.01775456476114526</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1314031975.20238</v>
+        <v>1089144554.18923</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1281344405356304</v>
+        <v>0.1748250933618594</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03351575974957333</v>
+        <v>0.03925980525102541</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3219880739.298894</v>
+        <v>3510854394.175606</v>
       </c>
       <c r="F88" t="n">
-        <v>0.149529263416485</v>
+        <v>0.1142179960224628</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02940424980267889</v>
+        <v>0.02714177698391036</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2900413179.620867</v>
+        <v>2426929585.646665</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1181598376709023</v>
+        <v>0.124849339619421</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04173760477968973</v>
+        <v>0.02687161478050554</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1916977948.956429</v>
+        <v>1957962941.516756</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1066309072343433</v>
+        <v>0.1364025112768797</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04586551069668409</v>
+        <v>0.04552252583868745</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2014625799.992888</v>
+        <v>1752107897.541417</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1543775949869819</v>
+        <v>0.1776300066581943</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04835914537992064</v>
+        <v>0.05144877026857514</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2741750317.731273</v>
+        <v>2501312989.96235</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08947175414395675</v>
+        <v>0.08530094694348793</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04650847169052109</v>
+        <v>0.03617183373604074</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3422944493.49261</v>
+        <v>4162800276.663074</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1394599813713706</v>
+        <v>0.1022572368519788</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04105625887248299</v>
+        <v>0.03830621531111444</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2095691592.786744</v>
+        <v>1796881174.444271</v>
       </c>
       <c r="F94" t="n">
-        <v>0.163520724263597</v>
+        <v>0.1516302391294013</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04204849213805077</v>
+        <v>0.03092610741151048</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2971737702.459332</v>
+        <v>2207136137.69528</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1349474700795871</v>
+        <v>0.138373974654802</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04635015479938927</v>
+        <v>0.03340946741000908</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1475780166.377903</v>
+        <v>2395892258.680872</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08516074471713572</v>
+        <v>0.1055697827331382</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03657148989547789</v>
+        <v>0.03465544661009371</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4145474666.476327</v>
+        <v>5004497574.173204</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1636315824561474</v>
+        <v>0.1173176995646592</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02762395861952776</v>
+        <v>0.02842400902130091</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3210124047.700651</v>
+        <v>3470945527.800916</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1001101951764329</v>
+        <v>0.1272210587904895</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03098563088049777</v>
+        <v>0.03001380224056409</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2678612507.439228</v>
+        <v>2426464110.236508</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1429694094882016</v>
+        <v>0.1122596278433582</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03427849056952913</v>
+        <v>0.02262628644368475</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4245158307.342384</v>
+        <v>4325973392.726187</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1740868781528296</v>
+        <v>0.1330488136791606</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02628147310057716</v>
+        <v>0.02149788769677901</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2872681780.683569</v>
+        <v>2403709178.271659</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1438750921814642</v>
+        <v>0.1682189389301156</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04194573165333593</v>
+        <v>0.04086879978687122</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_273.xlsx
+++ b/output/fit_clients/fit_round_273.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1782468978.897135</v>
+        <v>1737745076.256239</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08978578067286057</v>
+        <v>0.09265094310961783</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0307566761353957</v>
+        <v>0.0374190688123217</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2337708578.370473</v>
+        <v>1808389419.722803</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1717548194826998</v>
+        <v>0.1334119764930632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03754273693998646</v>
+        <v>0.04417781338089286</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3451623644.054429</v>
+        <v>5107993067.260399</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1096310647588602</v>
+        <v>0.1606368239514886</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03504915119118552</v>
+        <v>0.03120163859239605</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>146</v>
+      </c>
+      <c r="J4" t="n">
+        <v>272</v>
+      </c>
+      <c r="K4" t="n">
+        <v>91.05627201572646</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3265264317.481684</v>
+        <v>4078772491.126591</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08959050578509377</v>
+        <v>0.06932271681354339</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04965948636941535</v>
+        <v>0.03978523886677188</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>109</v>
+      </c>
+      <c r="J5" t="n">
+        <v>273</v>
+      </c>
+      <c r="K5" t="n">
+        <v>111.722535085088</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2491437385.551016</v>
+        <v>2078747523.885038</v>
       </c>
       <c r="F6" t="n">
-        <v>0.132896906637205</v>
+        <v>0.1420634755898163</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04738100255240146</v>
+        <v>0.04570347190920467</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2563711468.19995</v>
+        <v>3087599113.283878</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08539993719164113</v>
+        <v>0.07336458772026187</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03896168385122608</v>
+        <v>0.03408274890868272</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3438402907.275707</v>
+        <v>2959279611.321289</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2173977708659566</v>
+        <v>0.1548012027679203</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02543180611479394</v>
+        <v>0.0211837668920337</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>72</v>
+      </c>
+      <c r="J8" t="n">
+        <v>272</v>
+      </c>
+      <c r="K8" t="n">
+        <v>64.77130648247146</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +752,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1848290313.953708</v>
+        <v>1881340532.344087</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1609838456430285</v>
+        <v>0.1918463248094561</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02394219875899408</v>
+        <v>0.03303315679408141</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +781,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5774981075.530771</v>
+        <v>3575133786.300201</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1311133659058203</v>
+        <v>0.1622878947957396</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03679317678665719</v>
+        <v>0.05079570077516325</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>245</v>
+      </c>
+      <c r="J10" t="n">
+        <v>273</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3731701221.089349</v>
+        <v>2803989670.13693</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1745078377256563</v>
+        <v>0.1380884846277023</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04881041321079371</v>
+        <v>0.03668118528869507</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>110</v>
+      </c>
+      <c r="J11" t="n">
+        <v>268</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2074150934.172216</v>
+        <v>2630099667.175134</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1662082439617074</v>
+        <v>0.159685345521351</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05172697065199013</v>
+        <v>0.05270613195769304</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3934972755.088703</v>
+        <v>3494094910.603263</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07196119578614769</v>
+        <v>0.07087194842125179</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02629992802433398</v>
+        <v>0.02910387180243686</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>139</v>
+      </c>
+      <c r="J13" t="n">
+        <v>272</v>
+      </c>
+      <c r="K13" t="n">
+        <v>82.7043556623712</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3894417387.138716</v>
+        <v>3512197474.547935</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1838514908730589</v>
+        <v>0.1703632896516192</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04299508152943641</v>
+        <v>0.03666733955232716</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>56</v>
+      </c>
+      <c r="J14" t="n">
+        <v>272</v>
+      </c>
+      <c r="K14" t="n">
+        <v>92.08041534528111</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1189157121.462294</v>
+        <v>1226021769.152391</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1025225131869729</v>
+        <v>0.1004526316976601</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03904981079477704</v>
+        <v>0.03351512243384172</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2259550094.709935</v>
+        <v>2458822934.847066</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07357103472976857</v>
+        <v>0.1145397632671818</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0454322789271529</v>
+        <v>0.04104464212539263</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5186508669.952822</v>
+        <v>3607297124.499377</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1516118924235288</v>
+        <v>0.1068644039293191</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03730944512001468</v>
+        <v>0.04649663324786738</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>130</v>
+      </c>
+      <c r="J17" t="n">
+        <v>273</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1071,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2806510811.848759</v>
+        <v>2632249113.992024</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1609660235477288</v>
+        <v>0.1499744312534505</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03262790389783071</v>
+        <v>0.02483208732883078</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>69</v>
+      </c>
+      <c r="J18" t="n">
+        <v>272</v>
+      </c>
+      <c r="K18" t="n">
+        <v>50.18688931783104</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>894839126.5832125</v>
+        <v>1378071911.065737</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1889764518672343</v>
+        <v>0.1624043891545075</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02093153911460506</v>
+        <v>0.02743720267350358</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2713269361.703885</v>
+        <v>2599597515.047308</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1582844830084428</v>
+        <v>0.126627623962507</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02070824709816945</v>
+        <v>0.02327408894861772</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1865132479.061063</v>
+        <v>2038600135.00313</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07365979843082192</v>
+        <v>0.07903390082698535</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03622529994468584</v>
+        <v>0.03322388515080023</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3434460841.016901</v>
+        <v>3285185591.423282</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1021920109147122</v>
+        <v>0.1357299177404088</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04309638545625908</v>
+        <v>0.03690906978543424</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>71</v>
+      </c>
+      <c r="J22" t="n">
+        <v>270</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1343549544.681565</v>
+        <v>1091911095.334245</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1139612243081064</v>
+        <v>0.1663053248140206</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04197898147730874</v>
+        <v>0.04724890922034177</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2542816620.915169</v>
+        <v>3551591883.027815</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09157996900059041</v>
+        <v>0.1133889889408805</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03037129694834497</v>
+        <v>0.02502280576022316</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>81</v>
+      </c>
+      <c r="J24" t="n">
+        <v>273</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1143356690.139176</v>
+        <v>1322355442.271662</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1191874811171636</v>
+        <v>0.1028693085657915</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02738404908996719</v>
+        <v>0.02048202491917354</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1076996456.282191</v>
+        <v>1443243799.92476</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1044168589438585</v>
+        <v>0.08999986455873603</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02960984556951682</v>
+        <v>0.02524707728413705</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4266590553.162929</v>
+        <v>3714667160.893075</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1328409974203285</v>
+        <v>0.1257292258776052</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02439895836173761</v>
+        <v>0.02133097796966756</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>112</v>
+      </c>
+      <c r="J27" t="n">
+        <v>272</v>
+      </c>
+      <c r="K27" t="n">
+        <v>85.39951373280518</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3259002620.415667</v>
+        <v>2683238671.176678</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1370718140889728</v>
+        <v>0.1437885035251804</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03318685305138866</v>
+        <v>0.04196379049336097</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>55</v>
+      </c>
+      <c r="J28" t="n">
+        <v>270</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3861551517.303832</v>
+        <v>5239284030.481407</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1235627716906288</v>
+        <v>0.1166649196683434</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0304494630549802</v>
+        <v>0.03413100085078891</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>261</v>
+      </c>
+      <c r="J29" t="n">
+        <v>273</v>
+      </c>
+      <c r="K29" t="n">
+        <v>95.67174297672194</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1497,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2223355338.200777</v>
+        <v>1928089272.9543</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09630374431445317</v>
+        <v>0.1353248460009563</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02679244921372664</v>
+        <v>0.03670029269732456</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1242849734.376244</v>
+        <v>1310104201.620929</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1090410947904008</v>
+        <v>0.1077416845448462</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03900075907507282</v>
+        <v>0.03372007693569577</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1567,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1619287056.627329</v>
+        <v>1309250623.715852</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1031372034663229</v>
+        <v>0.07996382597508057</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0314845196152523</v>
+        <v>0.03843071614137897</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1602,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3085250474.658469</v>
+        <v>2573516225.876904</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1794715968018532</v>
+        <v>0.1568720802575253</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05623383304228625</v>
+        <v>0.0541411373229472</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1403635676.73635</v>
+        <v>1127985615.006728</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0778521719101907</v>
+        <v>0.1037803945428961</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0266838655933953</v>
+        <v>0.02459078983477558</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1071367530.948672</v>
+        <v>876503304.0924731</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07637484137144057</v>
+        <v>0.09791262145870416</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0444556822285332</v>
+        <v>0.03211998301646742</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1981513397.361997</v>
+        <v>2692501614.175473</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1790510757535669</v>
+        <v>0.1206708641636545</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0192996097051658</v>
+        <v>0.02316997422918549</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1742,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1954542524.091809</v>
+        <v>2791784914.838744</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09075143988401374</v>
+        <v>0.09827729785995687</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0407824555189686</v>
+        <v>0.03176738125656674</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1777,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1890099372.765257</v>
+        <v>2158235068.833727</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08118561599611786</v>
+        <v>0.1021291028190043</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03433435272907339</v>
+        <v>0.02468826200068272</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1458202652.411617</v>
+        <v>1607545353.172545</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1935905054808051</v>
+        <v>0.1366504651991462</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02341595063743743</v>
+        <v>0.03082501076601447</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1614867582.263599</v>
+        <v>1212313529.773202</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1039652866053537</v>
+        <v>0.1533501456131573</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04277587189211804</v>
+        <v>0.04956067566900794</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1882,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2806729289.374024</v>
+        <v>2683750831.108592</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1360256949932675</v>
+        <v>0.1448486435967009</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04377490464740507</v>
+        <v>0.04214379175923103</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3943120066.828113</v>
+        <v>2860069965.519093</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1199816968115116</v>
+        <v>0.09651181600116389</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0323381922980886</v>
+        <v>0.04470665823976946</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>115</v>
+      </c>
+      <c r="J42" t="n">
+        <v>271</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2366777221.081145</v>
+        <v>2544496663.456595</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1967004394810366</v>
+        <v>0.1706652190803372</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02192261034358083</v>
+        <v>0.021406845422653</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1864796679.923949</v>
+        <v>1922886366.357382</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06216237714033953</v>
+        <v>0.07244148327020922</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02903148371161307</v>
+        <v>0.03055918540109653</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2205251477.639384</v>
+        <v>2276812570.226363</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1534074577577996</v>
+        <v>0.1770453342181823</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05583481808109907</v>
+        <v>0.05133661219675462</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2057,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5531842646.046824</v>
+        <v>3517238791.122174</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1085552931773047</v>
+        <v>0.1635330996359566</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05751629439314757</v>
+        <v>0.04520214656554987</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>160</v>
+      </c>
+      <c r="J46" t="n">
+        <v>272</v>
+      </c>
+      <c r="K46" t="n">
+        <v>85.58691713513663</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2088,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3937302853.140994</v>
+        <v>3416987463.515059</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1718922626773103</v>
+        <v>0.1686837453004693</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03741317478245645</v>
+        <v>0.04413410528905645</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>123</v>
+      </c>
+      <c r="J47" t="n">
+        <v>272</v>
+      </c>
+      <c r="K47" t="n">
+        <v>66.63112418565659</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2125,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3507670603.088149</v>
+        <v>3183186764.244465</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09830155183472761</v>
+        <v>0.0741082394430897</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03624225654040486</v>
+        <v>0.0348687513398062</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>136</v>
+      </c>
+      <c r="J48" t="n">
+        <v>272</v>
+      </c>
+      <c r="K48" t="n">
+        <v>73.54338062390468</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1647627237.761538</v>
+        <v>1751458914.642937</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1474355824141228</v>
+        <v>0.1747035311938493</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0320393381459555</v>
+        <v>0.02802247601938575</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2197,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4066402599.849375</v>
+        <v>3854114750.276052</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1730696369613964</v>
+        <v>0.1496805744671123</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04338247379760755</v>
+        <v>0.0384825189896221</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>88</v>
+      </c>
+      <c r="J50" t="n">
+        <v>273</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1518777654.441529</v>
+        <v>1121604226.489195</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1419850935534707</v>
+        <v>0.1727832252680583</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03922700871805226</v>
+        <v>0.04114035399063291</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2267,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4420239666.819589</v>
+        <v>5135509477.279751</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1225772477944912</v>
+        <v>0.1145473512037783</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04373638886772011</v>
+        <v>0.04517003396491028</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>172</v>
+      </c>
+      <c r="J52" t="n">
+        <v>273</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2308,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2640924839.521576</v>
+        <v>3643543486.900406</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1635523466940024</v>
+        <v>0.1928161837520744</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02592506263550819</v>
+        <v>0.02460738533557174</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>38</v>
+      </c>
+      <c r="J53" t="n">
+        <v>273</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2343,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3267106839.780653</v>
+        <v>4617260043.306511</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1254214049629815</v>
+        <v>0.1106092853405767</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03876909010803918</v>
+        <v>0.03324367965254078</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>144</v>
+      </c>
+      <c r="J54" t="n">
+        <v>273</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4731396090.923844</v>
+        <v>4400837022.447078</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1479511130241952</v>
+        <v>0.1751462761219018</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02214433663739431</v>
+        <v>0.02049406052181259</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>122</v>
+      </c>
+      <c r="J55" t="n">
+        <v>273</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1144715740.888775</v>
+        <v>1891178170.559672</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1142272475374105</v>
+        <v>0.1124053248104718</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05677842604727542</v>
+        <v>0.04438051279932293</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2448,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3737737186.614553</v>
+        <v>2793294629.60316</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1523702195058154</v>
+        <v>0.1113721814570207</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02101797384188457</v>
+        <v>0.02521710499178616</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>110</v>
+      </c>
+      <c r="J57" t="n">
+        <v>272</v>
+      </c>
+      <c r="K57" t="n">
+        <v>53.88670784499452</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1340580055.784166</v>
+        <v>1740937328.606868</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1527598551062762</v>
+        <v>0.1728642140667567</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02856546118735293</v>
+        <v>0.02893238845247792</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2520,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4272631063.550027</v>
+        <v>3630511599.3339</v>
       </c>
       <c r="F59" t="n">
-        <v>0.114107450759082</v>
+        <v>0.1120630433313862</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04141104453892661</v>
+        <v>0.03529603600423935</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>132</v>
+      </c>
+      <c r="J59" t="n">
+        <v>272</v>
+      </c>
+      <c r="K59" t="n">
+        <v>84.03306603698081</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2349347700.12663</v>
+        <v>3357050671.16539</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1999553243550756</v>
+        <v>0.1775391513892841</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02189684054040866</v>
+        <v>0.02903626607106989</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>41</v>
+      </c>
+      <c r="J60" t="n">
+        <v>271</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2579146323.108527</v>
+        <v>2623689437.568039</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1670194165148189</v>
+        <v>0.1339754961074903</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03113796298765234</v>
+        <v>0.02386819444878189</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1765159787.097108</v>
+        <v>1951879271.869627</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1757761500805808</v>
+        <v>0.1195609483607422</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04967841240855467</v>
+        <v>0.03794309598824232</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2662,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5204785785.82857</v>
+        <v>5559200822.186555</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08115391790643417</v>
+        <v>0.09314006166022838</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04424972014534449</v>
+        <v>0.03435832627700084</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>132</v>
+      </c>
+      <c r="J63" t="n">
+        <v>273</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2697,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4229450532.194146</v>
+        <v>3986151154.75652</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1221409005217726</v>
+        <v>0.1537827361637999</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02155465999431207</v>
+        <v>0.02748832294607353</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>134</v>
+      </c>
+      <c r="J64" t="n">
+        <v>273</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4569984463.566504</v>
+        <v>3906978212.442158</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1617283558407411</v>
+        <v>0.1722834242893698</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02780120551162904</v>
+        <v>0.03092414835394605</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>219</v>
+      </c>
+      <c r="J65" t="n">
+        <v>273</v>
+      </c>
+      <c r="K65" t="n">
+        <v>95.73864011626888</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5188808121.844539</v>
+        <v>4801903225.888101</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1277379588260322</v>
+        <v>0.1048827635167288</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04178875649989822</v>
+        <v>0.03186645419847337</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>135</v>
+      </c>
+      <c r="J66" t="n">
+        <v>272</v>
+      </c>
+      <c r="K66" t="n">
+        <v>83.69330444619945</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2806,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2326863651.987872</v>
+        <v>2770231658.371633</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07088574170262665</v>
+        <v>0.0803634952433501</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04216087633975333</v>
+        <v>0.03972311251679906</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2841,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5055606896.575564</v>
+        <v>5779353705.649818</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1082975057743275</v>
+        <v>0.1537292301546097</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03540914766454283</v>
+        <v>0.04993968413040979</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>141</v>
+      </c>
+      <c r="J68" t="n">
+        <v>272</v>
+      </c>
+      <c r="K68" t="n">
+        <v>94.33959087692894</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2878,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1726923813.874763</v>
+        <v>1566168590.494272</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1774534194240408</v>
+        <v>0.1688712086329216</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04038274061288158</v>
+        <v>0.05855653140551765</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3526132767.330075</v>
+        <v>3300943732.418199</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07443754949682138</v>
+        <v>0.0807578955450613</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0448802255915579</v>
+        <v>0.04298583809637926</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>40</v>
+      </c>
+      <c r="J70" t="n">
+        <v>270</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4360026832.894789</v>
+        <v>4400980113.783795</v>
       </c>
       <c r="F71" t="n">
-        <v>0.133930617572605</v>
+        <v>0.1275611789490373</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03080598638654955</v>
+        <v>0.03006666095234918</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>206</v>
+      </c>
+      <c r="J71" t="n">
+        <v>273</v>
+      </c>
+      <c r="K71" t="n">
+        <v>94.63141392835928</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2119548180.574436</v>
+        <v>2168943283.949022</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1035202881901844</v>
+        <v>0.09293188481075992</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04691937447786499</v>
+        <v>0.05320841181533752</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3235144420.819077</v>
+        <v>3448840430.887457</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08349479889554795</v>
+        <v>0.08679972988905703</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03241055882188408</v>
+        <v>0.05059865408546961</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>273</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3530877911.022635</v>
+        <v>3281415248.487149</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1696252870712759</v>
+        <v>0.1616458185142227</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0328530694501053</v>
+        <v>0.02734043375643913</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>76</v>
+      </c>
+      <c r="J74" t="n">
+        <v>268</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3090,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2006145284.258437</v>
+        <v>1955334566.735819</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1570396995733806</v>
+        <v>0.1583983161049055</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02676791544261066</v>
+        <v>0.0371769451178981</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4176895197.894612</v>
+        <v>4379901176.092907</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09924115682484748</v>
+        <v>0.1240730618870977</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0279115315935206</v>
+        <v>0.03044893561890085</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>128</v>
+      </c>
+      <c r="J76" t="n">
+        <v>272</v>
+      </c>
+      <c r="K76" t="n">
+        <v>85.6421507658165</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2241623018.437877</v>
+        <v>2093071272.652551</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1419453722528354</v>
+        <v>0.1477450875087196</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02955305699733709</v>
+        <v>0.0198922401261464</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3626667436.240441</v>
+        <v>3433857398.100474</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1168718671793759</v>
+        <v>0.08584218082623678</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03864222872590863</v>
+        <v>0.04828284783241647</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>137</v>
+      </c>
+      <c r="J78" t="n">
+        <v>271</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1683298681.942836</v>
+        <v>1755433247.818079</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1679096726691461</v>
+        <v>0.1397168927257917</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03736896003054052</v>
+        <v>0.02517619913085421</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3451852897.830419</v>
+        <v>3813854221.064544</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1077211694175913</v>
+        <v>0.07516362050607311</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03117702063044498</v>
+        <v>0.02669802225839281</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>133</v>
+      </c>
+      <c r="J80" t="n">
+        <v>273</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4623330746.840736</v>
+        <v>3325909034.986928</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1281699075512658</v>
+        <v>0.1031920917794927</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03055271599452361</v>
+        <v>0.0274447414267883</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>125</v>
+      </c>
+      <c r="J81" t="n">
+        <v>271</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3616289670.69721</v>
+        <v>5246183865.628236</v>
       </c>
       <c r="F82" t="n">
-        <v>0.216484372641248</v>
+        <v>0.1366807085473802</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02926393144451772</v>
+        <v>0.02004395648862177</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>203</v>
+      </c>
+      <c r="J82" t="n">
+        <v>273</v>
+      </c>
+      <c r="K82" t="n">
+        <v>94.65094725934499</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1712797196.832977</v>
+        <v>2113262708.040455</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1078377010867292</v>
+        <v>0.1542718595578807</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04339303512539886</v>
+        <v>0.03018222347063727</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1749478070.42589</v>
+        <v>2264382469.510279</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0898788817477985</v>
+        <v>0.1145810245795259</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03747950746363529</v>
+        <v>0.03811065819767195</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3675375116.259522</v>
+        <v>3601830512.111017</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1136932237275854</v>
+        <v>0.1421015949732596</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03502320306790843</v>
+        <v>0.0367778352412504</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>37</v>
+      </c>
+      <c r="J85" t="n">
+        <v>273</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2241474249.987742</v>
+        <v>2718932627.265575</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1620141718398548</v>
+        <v>0.1161889545592846</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01775456476114526</v>
+        <v>0.02100208405435218</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1089144554.18923</v>
+        <v>1434478229.389583</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1748250933618594</v>
+        <v>0.1552813154757421</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03925980525102541</v>
+        <v>0.04066797048702054</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3510854394.175606</v>
+        <v>3079769345.037895</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1142179960224628</v>
+        <v>0.1243217707559273</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02714177698391036</v>
+        <v>0.0387551503252637</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2426929585.646665</v>
+        <v>2909951367.814618</v>
       </c>
       <c r="F89" t="n">
-        <v>0.124849339619421</v>
+        <v>0.1247139220152029</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02687161478050554</v>
+        <v>0.03958957444071885</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1957962941.516756</v>
+        <v>1614243050.982977</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1364025112768797</v>
+        <v>0.1074323819497413</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04552252583868745</v>
+        <v>0.03895088462158317</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1752107897.541417</v>
+        <v>1682504918.612221</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1776300066581943</v>
+        <v>0.1839472344138116</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05144877026857514</v>
+        <v>0.0512528509067933</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2501312989.96235</v>
+        <v>2853958022.542178</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08530094694348793</v>
+        <v>0.07716698085181871</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03617183373604074</v>
+        <v>0.04505329142035137</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4162800276.663074</v>
+        <v>3867178935.0145</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1022572368519788</v>
+        <v>0.1110073357092499</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03830621531111444</v>
+        <v>0.03681982439226512</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>118</v>
+      </c>
+      <c r="J93" t="n">
+        <v>273</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1796881174.444271</v>
+        <v>2069663671.545278</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1516302391294013</v>
+        <v>0.1286381881324203</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03092610741151048</v>
+        <v>0.03484795344579174</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2207136137.69528</v>
+        <v>2810611255.880172</v>
       </c>
       <c r="F95" t="n">
-        <v>0.138373974654802</v>
+        <v>0.1378190371068135</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03340946741000908</v>
+        <v>0.03635945221014092</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2395892258.680872</v>
+        <v>1447719138.285683</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1055697827331382</v>
+        <v>0.137058771959692</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03465544661009371</v>
+        <v>0.04160023136503843</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5004497574.173204</v>
+        <v>5059920870.242347</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1173176995646592</v>
+        <v>0.1065248218190214</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02842400902130091</v>
+        <v>0.01805886974338355</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>135</v>
+      </c>
+      <c r="J97" t="n">
+        <v>272</v>
+      </c>
+      <c r="K97" t="n">
+        <v>94.32090240952245</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3470945527.800916</v>
+        <v>3305837948.995595</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1272210587904895</v>
+        <v>0.1111494403836856</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03001380224056409</v>
+        <v>0.02905180939096557</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>65</v>
+      </c>
+      <c r="J98" t="n">
+        <v>266</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2426464110.236508</v>
+        <v>2451051262.112437</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1122596278433582</v>
+        <v>0.090592526901382</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02262628644368475</v>
+        <v>0.03415081443834893</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4325973392.726187</v>
+        <v>3749985326.256831</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1330488136791606</v>
+        <v>0.1716082759816047</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02149788769677901</v>
+        <v>0.0181181733369035</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>115</v>
+      </c>
+      <c r="J100" t="n">
+        <v>273</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2403709178.271659</v>
+        <v>2303499549.363054</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1682189389301156</v>
+        <v>0.2229299535161756</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04086879978687122</v>
+        <v>0.03928118203594962</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>23</v>
+      </c>
+      <c r="J101" t="n">
+        <v>271</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
